--- a/assi2/opt-16.xlsx
+++ b/assi2/opt-16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bochao/Desktop/4404/git/assi2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6495E01-E71D-4A47-B1F8-33C12DEACDFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AF3A68-F206-BA48-8C95-A03881A3CF59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10520" yWindow="7740" windowWidth="28040" windowHeight="17440" xr2:uid="{E9827E82-5F35-884E-B435-FEF5AA3B79DA}"/>
+    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{E9827E82-5F35-884E-B435-FEF5AA3B79DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
